--- a/Exercise_1/Files/VendorID_Input.xlsx
+++ b/Exercise_1/Files/VendorID_Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JCSantos\Documents\UiPath\Certification_ADPT_AE_Module7\Exercise_1\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9494EFDE-DCDD-454A-9A46-F860B63CAC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418A0884-359C-4E9B-9C6D-E6F94A338410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="16755" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Invoice Number</t>
   </si>
@@ -40,6 +40,48 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>IT754893</t>
+  </si>
+  <si>
+    <t>Waste management services</t>
+  </si>
+  <si>
+    <t>100496 CAD</t>
+  </si>
+  <si>
+    <t>DE767565</t>
+  </si>
+  <si>
+    <t>Concierge Services</t>
+  </si>
+  <si>
+    <t>325021 EUR</t>
+  </si>
+  <si>
+    <t>RO212121</t>
+  </si>
+  <si>
+    <t>IT Support</t>
+  </si>
+  <si>
+    <t>88122 RON</t>
+  </si>
+  <si>
+    <t>DE456232</t>
+  </si>
+  <si>
+    <t>Beverages and Catering</t>
+  </si>
+  <si>
+    <t>271271 RON</t>
+  </si>
+  <si>
+    <t>Various paper supplies</t>
+  </si>
+  <si>
+    <t>246745 EUR</t>
   </si>
 </sst>
 </file>
@@ -75,8 +117,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,7 +403,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,25 +434,85 @@
       <c r="A2">
         <v>666956</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43115</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>988648</v>
       </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>43161</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>773814</v>
       </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1">
+        <v>43238</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>274838</v>
       </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1">
+        <v>43266</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>382400</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1">
+        <v>43285</v>
       </c>
     </row>
   </sheetData>
